--- a/src/SaldokontniPolozkyJelenTest.xlsx
+++ b/src/SaldokontniPolozkyJelenTest.xlsx
@@ -10,13 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13525EBA-74AF-4DEE-8E74-3DBBBC87BD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="4491" yWindow="4491" windowWidth="24686" windowHeight="14598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="4491" yWindow="4491" windowWidth="24686" windowHeight="14598" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Data" sheetId="1" r:id="rId1"/>
     <x:sheet name="TranslationData" sheetId="2" r:id="rId2"/>
     <x:sheet name="CaptionData" sheetId="3" r:id="rId3"/>
     <x:sheet name="Aggregated Metadata" sheetId="4" r:id="rId4"/>
+    <x:sheet name="Data_CustLedgerEntry" sheetId="5" r:id="R5ef7660dc4ea4f35"/>
+    <x:sheet name="Data_VendorLedgerEntry" sheetId="6" r:id="R087c737ef5fb448e"/>
   </x:sheets>
   <x:calcPr calcId="0"/>
 </x:workbook>
@@ -373,10 +374,10 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:GA2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:GA2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="183">
+<file path=xl/tables/table118.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Data_CustLedgerEntry" displayName="Data_CustLedgerEntry" ref="A1:CP2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:CP2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="94">
     <x:tableColumn id="1" name="AcceptedPaymentTolerance" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="2" name="AcceptedPmtDiscTolerance" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="3" name="AdjustedCurrencyFactor" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
@@ -471,165 +472,174 @@
     <x:tableColumn id="92" name="TransactionNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="93" name="UserID" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="94" name="YourReference" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="95" name="AcceptedPaymentToleranceVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="96" name="AcceptedPmtDiscToleranceVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="97" name="AdjustedCurrencyFactorVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="98" name="AmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="99" name="AmountLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="100" name="AmounttoApplyVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="101" name="AppliestoDocNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="102" name="AppliestoDocTypeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="103" name="AppliestoExtDocNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="104" name="AppliestoIDVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="105" name="ApplyingEntryVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="106" name="BalAccountNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="107" name="BalAccountTypeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="108" name="BuyfromVendorNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="109" name="ClosedatDateVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="110" name="ClosedbyAmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="111" name="ClosedbyAmountLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="112" name="ClosedbyCurrencyAmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="113" name="ClosedbyCurrencyCodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="114" name="ClosedbyEntryNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="115" name="CreditAmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="116" name="CreditAmountLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="117" name="CreditorNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="118" name="CurrencyCodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="119" name="DebitAmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="120" name="DebitAmountLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="121" name="DescriptionVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="122" name="DimensionSetIDVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="123" name="DocumentDateVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="124" name="DocumentNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="125" name="DocumentTypeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="126" name="DueDateVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="127" name="EntryNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="128" name="ExportedtoPaymentFileVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="129" name="ExternalDocumentNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="130" name="GlobalDimension1CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="131" name="GlobalDimension2CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="132" name="ICPartnerCodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="133" name="InvDiscountLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="134" name="InvoiceReceivedDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="135" name="JournalBatchNameVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="136" name="JournalTemplNameVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="137" name="MaxPaymentToleranceVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="138" name="MessagetoRecipientVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="139" name="NoSeriesVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="140" name="OnHoldVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="141" name="OpenVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="142" name="OrigPmtDiscPossibleLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="143" name="OriginalAmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="144" name="OriginalAmtLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="145" name="OriginalCurrencyFactorVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="146" name="OriginalPmtDiscPossibleVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="147" name="PaymentMethodCodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="148" name="PaymentReferenceVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="149" name="PmtDiscRcdLCY" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="150" name="PmtDiscToleranceDateVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="151" name="PmtDiscountDateVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="152" name="PmtToleranceLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="153" name="PositiveVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="154" name="PostingDateVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="155" name="PrepaymentVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="156" name="PurchaseLCY" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="157" name="PurchaserCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="158" name="ReasonCodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="159" name="RecipientBankAccountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="160" name="RemainingAmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="161" name="RemainingAmtLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="162" name="RemainingPmtDiscPossibleVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="163" name="RemittoCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="164" name="ReversedVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="165" name="ReversedEntryNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="166" name="ReversedbyEntryNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="167" name="ShortcutDimension3CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="168" name="ShortcutDimension4CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="169" name="ShortcutDimension5CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="170" name="ShortcutDimension6CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="171" name="ShortcutDimension7CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="172" name="ShortcutDimension8CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="173" name="SourceCodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="174" name="SystemCreatedAtVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="175" name="SystemCreatedByVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="176" name="SystemIdVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="177" name="SystemModifiedAtVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="178" name="SystemModifiedByVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="179" name="TransactionNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="180" name="UserIDVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="181" name="VendorName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="182" name="VendorNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="183" name="VendorPostingGroup" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table119.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Data_VendorLedgerEntry" displayName="Data_VendorLedgerEntry" ref="A1:CK2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:CK2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="89">
+    <x:tableColumn id="1" name="AcceptedPaymentToleranceVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="2" name="AcceptedPmtDiscToleranceVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="3" name="AdjustedCurrencyFactorVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="4" name="AmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="5" name="AmountLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="6" name="AmounttoApplyVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="7" name="AppliestoDocNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="8" name="AppliestoDocTypeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="9" name="AppliestoExtDocNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="10" name="AppliestoIDVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="11" name="ApplyingEntryVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="12" name="BalAccountNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="13" name="BalAccountTypeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="14" name="BuyfromVendorNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="15" name="ClosedatDateVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="16" name="ClosedbyAmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="17" name="ClosedbyAmountLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="18" name="ClosedbyCurrencyAmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="19" name="ClosedbyCurrencyCodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="20" name="ClosedbyEntryNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="21" name="CreditAmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="22" name="CreditAmountLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="23" name="CreditorNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="24" name="CurrencyCodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="25" name="DebitAmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="26" name="DebitAmountLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="27" name="DescriptionVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="28" name="DimensionSetIDVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="29" name="DocumentDateVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="30" name="DocumentNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="31" name="DocumentTypeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="32" name="DueDateVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="33" name="EntryNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="34" name="ExportedtoPaymentFileVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="35" name="ExternalDocumentNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="36" name="GlobalDimension1CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="37" name="GlobalDimension2CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="38" name="ICPartnerCodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="39" name="InvDiscountLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="40" name="InvoiceReceivedDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="41" name="JournalBatchNameVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="42" name="JournalTemplNameVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="43" name="MaxPaymentToleranceVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="44" name="MessagetoRecipientVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="45" name="NoSeriesVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="46" name="OnHoldVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="47" name="OpenVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="48" name="OrigPmtDiscPossibleLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="49" name="OriginalAmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="50" name="OriginalAmtLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="51" name="OriginalCurrencyFactorVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="52" name="OriginalPmtDiscPossibleVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="53" name="PaymentMethodCodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="54" name="PaymentReferenceVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="55" name="PmtDiscRcdLCY" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="56" name="PmtDiscToleranceDateVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="57" name="PmtDiscountDateVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="58" name="PmtToleranceLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="59" name="PositiveVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="60" name="PostingDateVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="61" name="PrepaymentVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="62" name="PurchaseLCY" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="63" name="PurchaserCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="64" name="ReasonCodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="65" name="RecipientBankAccountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="66" name="RemainingAmountVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="67" name="RemainingAmtLCYVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="68" name="RemainingPmtDiscPossibleVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="69" name="RemittoCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="70" name="ReversedVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="71" name="ReversedEntryNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="72" name="ReversedbyEntryNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="73" name="ShortcutDimension3CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="74" name="ShortcutDimension4CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="75" name="ShortcutDimension5CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="76" name="ShortcutDimension6CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="77" name="ShortcutDimension7CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="78" name="ShortcutDimension8CodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="79" name="SourceCodeVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="80" name="SystemCreatedAtVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="81" name="SystemCreatedByVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="82" name="SystemIdVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="83" name="SystemModifiedAtVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="84" name="SystemModifiedByVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="85" name="TransactionNoVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="86" name="UserIDVen" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="87" name="VendorName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="88" name="VendorNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="89" name="VendorPostingGroup" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC11CF61-B374-4F0B-84B3-23694D65F56E}" name="TranslationData" displayName="TranslationData" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{DC11CF61-B374-4F0B-84B3-23694D65F56E}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8F1461C4-E348-4166-87E9-8D4925AB342B}" name="CaptionKey"/>
-    <tableColumn id="2" xr3:uid="{B1350A6A-8E59-4E2C-AACD-14E037DDCF40}" name="Language"/>
-    <tableColumn id="3" xr3:uid="{8218ECD7-CE7E-4E5C-ACDE-0ADC9D0CE65E}" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TranslationData" displayName="TranslationData" ref="A1:C2" totalsRowShown="0" xr:uid="{DC11CF61-B374-4F0B-84B3-23694D65F56E}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:C2" xr:uid="{DC11CF61-B374-4F0B-84B3-23694D65F56E}"/>
+  <x:tableColumns count="3">
+    <x:tableColumn id="1" name="CaptionKey" xr3:uid="{8F1461C4-E348-4166-87E9-8D4925AB342B}"/>
+    <x:tableColumn id="2" name="Language" xr3:uid="{B1350A6A-8E59-4E2C-AACD-14E037DDCF40}"/>
+    <x:tableColumn id="3" name="Value" xr3:uid="{8218ECD7-CE7E-4E5C-ACDE-0ADC9D0CE65E}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EF02A179-C226-4470-BF2E-AC1BEBC8C0D4}" name="CaptionData" displayName="CaptionData" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{EF02A179-C226-4470-BF2E-AC1BEBC8C0D4}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9C04E6DA-1D54-48CA-A030-6BAD61CB0617}" name="Caption"/>
-    <tableColumn id="2" xr3:uid="{89582DF0-EB9B-41CD-8C22-DFBA8F8BD440}" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="CaptionData" displayName="CaptionData" ref="A1:B2" totalsRowShown="0" xr:uid="{EF02A179-C226-4470-BF2E-AC1BEBC8C0D4}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:B2" xr:uid="{EF02A179-C226-4470-BF2E-AC1BEBC8C0D4}"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="Caption" xr3:uid="{9C04E6DA-1D54-48CA-A030-6BAD61CB0617}"/>
+    <x:tableColumn id="2" name="Value" xr3:uid="{89582DF0-EB9B-41CD-8C22-DFBA8F8BD440}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}" name="ReportMetadataValues" displayName="ReportMetadataValues" ref="A1:B10" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:B10" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5CBC1C08-5A8D-42BB-92CA-C3F1D0EF0A4D}" name="Report Property"/>
-    <tableColumn id="2" xr3:uid="{920E2177-8B70-4968-B161-4C2CF0A824C6}" name="Report Property Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ReportMetadataValues" displayName="ReportMetadataValues" ref="A1:B10" totalsRowShown="0" headerRowDxfId="3" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:B10" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="Report Property" xr3:uid="{5CBC1C08-5A8D-42BB-92CA-C3F1D0EF0A4D}"/>
+    <x:tableColumn id="2" name="Report Property Value" xr3:uid="{920E2177-8B70-4968-B161-4C2CF0A824C6}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}" name="ReportRequestValues" displayName="ReportRequestValues" ref="D1:E10" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="D1:E10" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E6EF2D44-8AB2-42E8-A7E3-9B148922AA59}" name="Request Property"/>
-    <tableColumn id="2" xr3:uid="{FA31CE16-2D0E-4E4D-BC19-2B03E00E4B08}" name="Request Property Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ReportRequestValues" displayName="ReportRequestValues" ref="D1:E10" totalsRowShown="0" headerRowDxfId="2" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="D1:E10" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="Request Property" xr3:uid="{E6EF2D44-8AB2-42E8-A7E3-9B148922AA59}"/>
+    <x:tableColumn id="2" name="Request Property Value" xr3:uid="{FA31CE16-2D0E-4E4D-BC19-2B03E00E4B08}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}" name="ReportRequestPageValues" displayName="ReportRequestPageValues" ref="G1:H2" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="G1:H2" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{023648B2-C225-4580-B767-C48467418032}" name="Request Page Option"/>
-    <tableColumn id="2" xr3:uid="{BBB51944-3368-483F-9ECA-E66C489A7E1A}" name="Request Page Option Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ReportRequestPageValues" displayName="ReportRequestPageValues" ref="G1:H2" totalsRowShown="0" headerRowDxfId="1" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="G1:H2" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="Request Page Option" xr3:uid="{023648B2-C225-4580-B767-C48467418032}"/>
+    <x:tableColumn id="2" name="Request Page Option Value" xr3:uid="{BBB51944-3368-483F-9ECA-E66C489A7E1A}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}" name="ReportFilterValues" displayName="ReportFilterValues" ref="J1:K2" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="J1:K2" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D710F0AA-F8F4-4DB2-BC43-E65C2054A321}" name="Filter"/>
-    <tableColumn id="2" xr3:uid="{F291234F-EE76-4AF1-A03D-6D3FB6737920}" name="Filter Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ReportFilterValues" displayName="ReportFilterValues" ref="J1:K2" totalsRowShown="0" headerRowDxfId="0" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="J1:K2" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="Filter" xr3:uid="{D710F0AA-F8F4-4DB2-BC43-E65C2054A321}"/>
+    <x:tableColumn id="2" name="Filter Value" xr3:uid="{F291234F-EE76-4AF1-A03D-6D3FB6737920}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,15 +937,9 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:dimension ref="A1:A2"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft"/>
-    </x:sheetView>
-  </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <x:cols>
     <x:col min="1" max="1" width="18.4609375" bestFit="1" customWidth="1"/>
@@ -1224,273 +1228,6 @@
       <x:c r="CP1" t="str">
         <x:v>YourReference</x:v>
       </x:c>
-      <x:c r="CQ1" t="str">
-        <x:v>AcceptedPaymentToleranceVen</x:v>
-      </x:c>
-      <x:c r="CR1" t="str">
-        <x:v>AcceptedPmtDiscToleranceVen</x:v>
-      </x:c>
-      <x:c r="CS1" t="str">
-        <x:v>AdjustedCurrencyFactorVen</x:v>
-      </x:c>
-      <x:c r="CT1" t="str">
-        <x:v>AmountVen</x:v>
-      </x:c>
-      <x:c r="CU1" t="str">
-        <x:v>AmountLCYVen</x:v>
-      </x:c>
-      <x:c r="CV1" t="str">
-        <x:v>AmounttoApplyVen</x:v>
-      </x:c>
-      <x:c r="CW1" t="str">
-        <x:v>AppliestoDocNoVen</x:v>
-      </x:c>
-      <x:c r="CX1" t="str">
-        <x:v>AppliestoDocTypeVen</x:v>
-      </x:c>
-      <x:c r="CY1" t="str">
-        <x:v>AppliestoExtDocNoVen</x:v>
-      </x:c>
-      <x:c r="CZ1" t="str">
-        <x:v>AppliestoIDVen</x:v>
-      </x:c>
-      <x:c r="DA1" t="str">
-        <x:v>ApplyingEntryVen</x:v>
-      </x:c>
-      <x:c r="DB1" t="str">
-        <x:v>BalAccountNoVen</x:v>
-      </x:c>
-      <x:c r="DC1" t="str">
-        <x:v>BalAccountTypeVen</x:v>
-      </x:c>
-      <x:c r="DD1" t="str">
-        <x:v>BuyfromVendorNo</x:v>
-      </x:c>
-      <x:c r="DE1" t="str">
-        <x:v>ClosedatDateVen</x:v>
-      </x:c>
-      <x:c r="DF1" t="str">
-        <x:v>ClosedbyAmountVen</x:v>
-      </x:c>
-      <x:c r="DG1" t="str">
-        <x:v>ClosedbyAmountLCYVen</x:v>
-      </x:c>
-      <x:c r="DH1" t="str">
-        <x:v>ClosedbyCurrencyAmountVen</x:v>
-      </x:c>
-      <x:c r="DI1" t="str">
-        <x:v>ClosedbyCurrencyCodeVen</x:v>
-      </x:c>
-      <x:c r="DJ1" t="str">
-        <x:v>ClosedbyEntryNoVen</x:v>
-      </x:c>
-      <x:c r="DK1" t="str">
-        <x:v>CreditAmountVen</x:v>
-      </x:c>
-      <x:c r="DL1" t="str">
-        <x:v>CreditAmountLCYVen</x:v>
-      </x:c>
-      <x:c r="DM1" t="str">
-        <x:v>CreditorNo</x:v>
-      </x:c>
-      <x:c r="DN1" t="str">
-        <x:v>CurrencyCodeVen</x:v>
-      </x:c>
-      <x:c r="DO1" t="str">
-        <x:v>DebitAmountVen</x:v>
-      </x:c>
-      <x:c r="DP1" t="str">
-        <x:v>DebitAmountLCYVen</x:v>
-      </x:c>
-      <x:c r="DQ1" t="str">
-        <x:v>DescriptionVen</x:v>
-      </x:c>
-      <x:c r="DR1" t="str">
-        <x:v>DimensionSetIDVen</x:v>
-      </x:c>
-      <x:c r="DS1" t="str">
-        <x:v>DocumentDateVen</x:v>
-      </x:c>
-      <x:c r="DT1" t="str">
-        <x:v>DocumentNoVen</x:v>
-      </x:c>
-      <x:c r="DU1" t="str">
-        <x:v>DocumentTypeVen</x:v>
-      </x:c>
-      <x:c r="DV1" t="str">
-        <x:v>DueDateVen</x:v>
-      </x:c>
-      <x:c r="DW1" t="str">
-        <x:v>EntryNoVen</x:v>
-      </x:c>
-      <x:c r="DX1" t="str">
-        <x:v>ExportedtoPaymentFileVen</x:v>
-      </x:c>
-      <x:c r="DY1" t="str">
-        <x:v>ExternalDocumentNoVen</x:v>
-      </x:c>
-      <x:c r="DZ1" t="str">
-        <x:v>GlobalDimension1CodeVen</x:v>
-      </x:c>
-      <x:c r="EA1" t="str">
-        <x:v>GlobalDimension2CodeVen</x:v>
-      </x:c>
-      <x:c r="EB1" t="str">
-        <x:v>ICPartnerCodeVen</x:v>
-      </x:c>
-      <x:c r="EC1" t="str">
-        <x:v>InvDiscountLCYVen</x:v>
-      </x:c>
-      <x:c r="ED1" t="str">
-        <x:v>InvoiceReceivedDate</x:v>
-      </x:c>
-      <x:c r="EE1" t="str">
-        <x:v>JournalBatchNameVen</x:v>
-      </x:c>
-      <x:c r="EF1" t="str">
-        <x:v>JournalTemplNameVen</x:v>
-      </x:c>
-      <x:c r="EG1" t="str">
-        <x:v>MaxPaymentToleranceVen</x:v>
-      </x:c>
-      <x:c r="EH1" t="str">
-        <x:v>MessagetoRecipientVen</x:v>
-      </x:c>
-      <x:c r="EI1" t="str">
-        <x:v>NoSeriesVen</x:v>
-      </x:c>
-      <x:c r="EJ1" t="str">
-        <x:v>OnHoldVen</x:v>
-      </x:c>
-      <x:c r="EK1" t="str">
-        <x:v>OpenVen</x:v>
-      </x:c>
-      <x:c r="EL1" t="str">
-        <x:v>OrigPmtDiscPossibleLCYVen</x:v>
-      </x:c>
-      <x:c r="EM1" t="str">
-        <x:v>OriginalAmountVen</x:v>
-      </x:c>
-      <x:c r="EN1" t="str">
-        <x:v>OriginalAmtLCYVen</x:v>
-      </x:c>
-      <x:c r="EO1" t="str">
-        <x:v>OriginalCurrencyFactorVen</x:v>
-      </x:c>
-      <x:c r="EP1" t="str">
-        <x:v>OriginalPmtDiscPossibleVen</x:v>
-      </x:c>
-      <x:c r="EQ1" t="str">
-        <x:v>PaymentMethodCodeVen</x:v>
-      </x:c>
-      <x:c r="ER1" t="str">
-        <x:v>PaymentReferenceVen</x:v>
-      </x:c>
-      <x:c r="ES1" t="str">
-        <x:v>PmtDiscRcdLCY</x:v>
-      </x:c>
-      <x:c r="ET1" t="str">
-        <x:v>PmtDiscToleranceDateVen</x:v>
-      </x:c>
-      <x:c r="EU1" t="str">
-        <x:v>PmtDiscountDateVen</x:v>
-      </x:c>
-      <x:c r="EV1" t="str">
-        <x:v>PmtToleranceLCYVen</x:v>
-      </x:c>
-      <x:c r="EW1" t="str">
-        <x:v>PositiveVen</x:v>
-      </x:c>
-      <x:c r="EX1" t="str">
-        <x:v>PostingDateVen</x:v>
-      </x:c>
-      <x:c r="EY1" t="str">
-        <x:v>PrepaymentVen</x:v>
-      </x:c>
-      <x:c r="EZ1" t="str">
-        <x:v>PurchaseLCY</x:v>
-      </x:c>
-      <x:c r="FA1" t="str">
-        <x:v>PurchaserCode</x:v>
-      </x:c>
-      <x:c r="FB1" t="str">
-        <x:v>ReasonCodeVen</x:v>
-      </x:c>
-      <x:c r="FC1" t="str">
-        <x:v>RecipientBankAccountVen</x:v>
-      </x:c>
-      <x:c r="FD1" t="str">
-        <x:v>RemainingAmountVen</x:v>
-      </x:c>
-      <x:c r="FE1" t="str">
-        <x:v>RemainingAmtLCYVen</x:v>
-      </x:c>
-      <x:c r="FF1" t="str">
-        <x:v>RemainingPmtDiscPossibleVen</x:v>
-      </x:c>
-      <x:c r="FG1" t="str">
-        <x:v>RemittoCode</x:v>
-      </x:c>
-      <x:c r="FH1" t="str">
-        <x:v>ReversedVen</x:v>
-      </x:c>
-      <x:c r="FI1" t="str">
-        <x:v>ReversedEntryNoVen</x:v>
-      </x:c>
-      <x:c r="FJ1" t="str">
-        <x:v>ReversedbyEntryNoVen</x:v>
-      </x:c>
-      <x:c r="FK1" t="str">
-        <x:v>ShortcutDimension3CodeVen</x:v>
-      </x:c>
-      <x:c r="FL1" t="str">
-        <x:v>ShortcutDimension4CodeVen</x:v>
-      </x:c>
-      <x:c r="FM1" t="str">
-        <x:v>ShortcutDimension5CodeVen</x:v>
-      </x:c>
-      <x:c r="FN1" t="str">
-        <x:v>ShortcutDimension6CodeVen</x:v>
-      </x:c>
-      <x:c r="FO1" t="str">
-        <x:v>ShortcutDimension7CodeVen</x:v>
-      </x:c>
-      <x:c r="FP1" t="str">
-        <x:v>ShortcutDimension8CodeVen</x:v>
-      </x:c>
-      <x:c r="FQ1" t="str">
-        <x:v>SourceCodeVen</x:v>
-      </x:c>
-      <x:c r="FR1" t="str">
-        <x:v>SystemCreatedAtVen</x:v>
-      </x:c>
-      <x:c r="FS1" t="str">
-        <x:v>SystemCreatedByVen</x:v>
-      </x:c>
-      <x:c r="FT1" t="str">
-        <x:v>SystemIdVen</x:v>
-      </x:c>
-      <x:c r="FU1" t="str">
-        <x:v>SystemModifiedAtVen</x:v>
-      </x:c>
-      <x:c r="FV1" t="str">
-        <x:v>SystemModifiedByVen</x:v>
-      </x:c>
-      <x:c r="FW1" t="str">
-        <x:v>TransactionNoVen</x:v>
-      </x:c>
-      <x:c r="FX1" t="str">
-        <x:v>UserIDVen</x:v>
-      </x:c>
-      <x:c r="FY1" t="str">
-        <x:v>VendorName</x:v>
-      </x:c>
-      <x:c r="FZ1" t="str">
-        <x:v>VendorNo</x:v>
-      </x:c>
-      <x:c r="GA1" t="str">
-        <x:v>VendorPostingGroup</x:v>
-      </x:c>
     </x:row>
     <x:row>
       <x:c r="A2" s="2" t="n">
@@ -1775,271 +1512,558 @@
       <x:c r="CP2" t="str">
         <x:v/>
       </x:c>
-      <x:c r="CQ2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="CR2" t="str">
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId1"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:dimension ref="A1:A2"/>
+  <x:sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <x:cols>
+    <x:col min="1" max="1" width="18.4609375" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row>
+      <x:c r="A1" t="str">
+        <x:v>AcceptedPaymentToleranceVen</x:v>
+      </x:c>
+      <x:c r="B1" t="str">
+        <x:v>AcceptedPmtDiscToleranceVen</x:v>
+      </x:c>
+      <x:c r="C1" t="str">
+        <x:v>AdjustedCurrencyFactorVen</x:v>
+      </x:c>
+      <x:c r="D1" t="str">
+        <x:v>AmountVen</x:v>
+      </x:c>
+      <x:c r="E1" t="str">
+        <x:v>AmountLCYVen</x:v>
+      </x:c>
+      <x:c r="F1" t="str">
+        <x:v>AmounttoApplyVen</x:v>
+      </x:c>
+      <x:c r="G1" t="str">
+        <x:v>AppliestoDocNoVen</x:v>
+      </x:c>
+      <x:c r="H1" t="str">
+        <x:v>AppliestoDocTypeVen</x:v>
+      </x:c>
+      <x:c r="I1" t="str">
+        <x:v>AppliestoExtDocNoVen</x:v>
+      </x:c>
+      <x:c r="J1" t="str">
+        <x:v>AppliestoIDVen</x:v>
+      </x:c>
+      <x:c r="K1" t="str">
+        <x:v>ApplyingEntryVen</x:v>
+      </x:c>
+      <x:c r="L1" t="str">
+        <x:v>BalAccountNoVen</x:v>
+      </x:c>
+      <x:c r="M1" t="str">
+        <x:v>BalAccountTypeVen</x:v>
+      </x:c>
+      <x:c r="N1" t="str">
+        <x:v>BuyfromVendorNo</x:v>
+      </x:c>
+      <x:c r="O1" t="str">
+        <x:v>ClosedatDateVen</x:v>
+      </x:c>
+      <x:c r="P1" t="str">
+        <x:v>ClosedbyAmountVen</x:v>
+      </x:c>
+      <x:c r="Q1" t="str">
+        <x:v>ClosedbyAmountLCYVen</x:v>
+      </x:c>
+      <x:c r="R1" t="str">
+        <x:v>ClosedbyCurrencyAmountVen</x:v>
+      </x:c>
+      <x:c r="S1" t="str">
+        <x:v>ClosedbyCurrencyCodeVen</x:v>
+      </x:c>
+      <x:c r="T1" t="str">
+        <x:v>ClosedbyEntryNoVen</x:v>
+      </x:c>
+      <x:c r="U1" t="str">
+        <x:v>CreditAmountVen</x:v>
+      </x:c>
+      <x:c r="V1" t="str">
+        <x:v>CreditAmountLCYVen</x:v>
+      </x:c>
+      <x:c r="W1" t="str">
+        <x:v>CreditorNo</x:v>
+      </x:c>
+      <x:c r="X1" t="str">
+        <x:v>CurrencyCodeVen</x:v>
+      </x:c>
+      <x:c r="Y1" t="str">
+        <x:v>DebitAmountVen</x:v>
+      </x:c>
+      <x:c r="Z1" t="str">
+        <x:v>DebitAmountLCYVen</x:v>
+      </x:c>
+      <x:c r="AA1" t="str">
+        <x:v>DescriptionVen</x:v>
+      </x:c>
+      <x:c r="AB1" t="str">
+        <x:v>DimensionSetIDVen</x:v>
+      </x:c>
+      <x:c r="AC1" t="str">
+        <x:v>DocumentDateVen</x:v>
+      </x:c>
+      <x:c r="AD1" t="str">
+        <x:v>DocumentNoVen</x:v>
+      </x:c>
+      <x:c r="AE1" t="str">
+        <x:v>DocumentTypeVen</x:v>
+      </x:c>
+      <x:c r="AF1" t="str">
+        <x:v>DueDateVen</x:v>
+      </x:c>
+      <x:c r="AG1" t="str">
+        <x:v>EntryNoVen</x:v>
+      </x:c>
+      <x:c r="AH1" t="str">
+        <x:v>ExportedtoPaymentFileVen</x:v>
+      </x:c>
+      <x:c r="AI1" t="str">
+        <x:v>ExternalDocumentNoVen</x:v>
+      </x:c>
+      <x:c r="AJ1" t="str">
+        <x:v>GlobalDimension1CodeVen</x:v>
+      </x:c>
+      <x:c r="AK1" t="str">
+        <x:v>GlobalDimension2CodeVen</x:v>
+      </x:c>
+      <x:c r="AL1" t="str">
+        <x:v>ICPartnerCodeVen</x:v>
+      </x:c>
+      <x:c r="AM1" t="str">
+        <x:v>InvDiscountLCYVen</x:v>
+      </x:c>
+      <x:c r="AN1" t="str">
+        <x:v>InvoiceReceivedDate</x:v>
+      </x:c>
+      <x:c r="AO1" t="str">
+        <x:v>JournalBatchNameVen</x:v>
+      </x:c>
+      <x:c r="AP1" t="str">
+        <x:v>JournalTemplNameVen</x:v>
+      </x:c>
+      <x:c r="AQ1" t="str">
+        <x:v>MaxPaymentToleranceVen</x:v>
+      </x:c>
+      <x:c r="AR1" t="str">
+        <x:v>MessagetoRecipientVen</x:v>
+      </x:c>
+      <x:c r="AS1" t="str">
+        <x:v>NoSeriesVen</x:v>
+      </x:c>
+      <x:c r="AT1" t="str">
+        <x:v>OnHoldVen</x:v>
+      </x:c>
+      <x:c r="AU1" t="str">
+        <x:v>OpenVen</x:v>
+      </x:c>
+      <x:c r="AV1" t="str">
+        <x:v>OrigPmtDiscPossibleLCYVen</x:v>
+      </x:c>
+      <x:c r="AW1" t="str">
+        <x:v>OriginalAmountVen</x:v>
+      </x:c>
+      <x:c r="AX1" t="str">
+        <x:v>OriginalAmtLCYVen</x:v>
+      </x:c>
+      <x:c r="AY1" t="str">
+        <x:v>OriginalCurrencyFactorVen</x:v>
+      </x:c>
+      <x:c r="AZ1" t="str">
+        <x:v>OriginalPmtDiscPossibleVen</x:v>
+      </x:c>
+      <x:c r="BA1" t="str">
+        <x:v>PaymentMethodCodeVen</x:v>
+      </x:c>
+      <x:c r="BB1" t="str">
+        <x:v>PaymentReferenceVen</x:v>
+      </x:c>
+      <x:c r="BC1" t="str">
+        <x:v>PmtDiscRcdLCY</x:v>
+      </x:c>
+      <x:c r="BD1" t="str">
+        <x:v>PmtDiscToleranceDateVen</x:v>
+      </x:c>
+      <x:c r="BE1" t="str">
+        <x:v>PmtDiscountDateVen</x:v>
+      </x:c>
+      <x:c r="BF1" t="str">
+        <x:v>PmtToleranceLCYVen</x:v>
+      </x:c>
+      <x:c r="BG1" t="str">
+        <x:v>PositiveVen</x:v>
+      </x:c>
+      <x:c r="BH1" t="str">
+        <x:v>PostingDateVen</x:v>
+      </x:c>
+      <x:c r="BI1" t="str">
+        <x:v>PrepaymentVen</x:v>
+      </x:c>
+      <x:c r="BJ1" t="str">
+        <x:v>PurchaseLCY</x:v>
+      </x:c>
+      <x:c r="BK1" t="str">
+        <x:v>PurchaserCode</x:v>
+      </x:c>
+      <x:c r="BL1" t="str">
+        <x:v>ReasonCodeVen</x:v>
+      </x:c>
+      <x:c r="BM1" t="str">
+        <x:v>RecipientBankAccountVen</x:v>
+      </x:c>
+      <x:c r="BN1" t="str">
+        <x:v>RemainingAmountVen</x:v>
+      </x:c>
+      <x:c r="BO1" t="str">
+        <x:v>RemainingAmtLCYVen</x:v>
+      </x:c>
+      <x:c r="BP1" t="str">
+        <x:v>RemainingPmtDiscPossibleVen</x:v>
+      </x:c>
+      <x:c r="BQ1" t="str">
+        <x:v>RemittoCode</x:v>
+      </x:c>
+      <x:c r="BR1" t="str">
+        <x:v>ReversedVen</x:v>
+      </x:c>
+      <x:c r="BS1" t="str">
+        <x:v>ReversedEntryNoVen</x:v>
+      </x:c>
+      <x:c r="BT1" t="str">
+        <x:v>ReversedbyEntryNoVen</x:v>
+      </x:c>
+      <x:c r="BU1" t="str">
+        <x:v>ShortcutDimension3CodeVen</x:v>
+      </x:c>
+      <x:c r="BV1" t="str">
+        <x:v>ShortcutDimension4CodeVen</x:v>
+      </x:c>
+      <x:c r="BW1" t="str">
+        <x:v>ShortcutDimension5CodeVen</x:v>
+      </x:c>
+      <x:c r="BX1" t="str">
+        <x:v>ShortcutDimension6CodeVen</x:v>
+      </x:c>
+      <x:c r="BY1" t="str">
+        <x:v>ShortcutDimension7CodeVen</x:v>
+      </x:c>
+      <x:c r="BZ1" t="str">
+        <x:v>ShortcutDimension8CodeVen</x:v>
+      </x:c>
+      <x:c r="CA1" t="str">
+        <x:v>SourceCodeVen</x:v>
+      </x:c>
+      <x:c r="CB1" t="str">
+        <x:v>SystemCreatedAtVen</x:v>
+      </x:c>
+      <x:c r="CC1" t="str">
+        <x:v>SystemCreatedByVen</x:v>
+      </x:c>
+      <x:c r="CD1" t="str">
+        <x:v>SystemIdVen</x:v>
+      </x:c>
+      <x:c r="CE1" t="str">
+        <x:v>SystemModifiedAtVen</x:v>
+      </x:c>
+      <x:c r="CF1" t="str">
+        <x:v>SystemModifiedByVen</x:v>
+      </x:c>
+      <x:c r="CG1" t="str">
+        <x:v>TransactionNoVen</x:v>
+      </x:c>
+      <x:c r="CH1" t="str">
+        <x:v>UserIDVen</x:v>
+      </x:c>
+      <x:c r="CI1" t="str">
+        <x:v>VendorName</x:v>
+      </x:c>
+      <x:c r="CJ1" t="str">
+        <x:v>VendorNo</x:v>
+      </x:c>
+      <x:c r="CK1" t="str">
+        <x:v>VendorPostingGroup</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="B2" t="str">
         <x:v>False</x:v>
       </x:c>
-      <x:c r="CS2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="CT2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="CU2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="CV2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="CW2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="CX2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="CY2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="CZ2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="DA2" t="str">
+      <x:c r="C2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="G2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="I2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="K2" t="str">
         <x:v>False</x:v>
       </x:c>
-      <x:c r="DB2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="DC2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="DD2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="DE2" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="DF2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="DG2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="DH2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="DI2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="DJ2" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="DK2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="DL2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="DM2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="DN2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="DO2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="DP2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="DQ2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="DR2" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="DS2" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="DT2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="DU2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="DV2" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="DW2" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="DX2" t="str">
+      <x:c r="L2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="M2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="N2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="O2" s="3">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="Q2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="R2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="S2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="T2" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="V2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="W2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="X2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="Y2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="Z2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="AA2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="AB2" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC2" s="3">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="AE2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="AF2" s="3">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG2" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AH2" t="str">
         <x:v>False</x:v>
       </x:c>
-      <x:c r="DY2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="DZ2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="EA2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="EB2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="EC2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="ED2" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="EE2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="EF2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="EG2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="EH2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="EI2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="EJ2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="EK2" t="str">
+      <x:c r="AI2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="AJ2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="AK2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="AL2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="AM2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="AN2" s="3">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="AP2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="AQ2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="AR2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="AS2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="AT2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="AU2" t="str">
         <x:v>False</x:v>
       </x:c>
-      <x:c r="EL2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="EM2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="EN2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="EO2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="EP2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="EQ2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="ER2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="ES2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="ET2" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="EU2" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="EV2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="EW2" t="str">
+      <x:c r="AV2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="AW2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="AX2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="AY2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="AZ2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="BA2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="BB2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="BC2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="BD2" s="3">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BE2" s="3">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BF2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="BG2" t="str">
         <x:v>False</x:v>
       </x:c>
-      <x:c r="EX2" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="EY2" t="str">
+      <x:c r="BH2" s="3">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BI2" t="str">
         <x:v>False</x:v>
       </x:c>
-      <x:c r="EZ2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="FA2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="FB2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="FC2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="FD2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="FE2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="FF2" s="2" t="n">
-        <x:v>0.0</x:v>
-      </x:c>
-      <x:c r="FG2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="FH2" t="str">
+      <x:c r="BJ2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="BK2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="BL2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="BM2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="BN2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="BO2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="BP2" s="2" t="n">
+        <x:v>0.0</x:v>
+      </x:c>
+      <x:c r="BQ2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="BR2" t="str">
         <x:v>False</x:v>
       </x:c>
-      <x:c r="FI2" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="FJ2" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="FK2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="FL2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="FM2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="FN2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="FO2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="FP2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="FQ2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="FR2" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="FS2" t="str">
+      <x:c r="BS2" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT2" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="BV2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="BW2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="BX2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="BY2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="BZ2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="CA2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="CB2" s="5">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC2" t="str">
         <x:v>00000000-0000-0000-0000-000000000000</x:v>
       </x:c>
-      <x:c r="FT2" t="str">
+      <x:c r="CD2" t="str">
         <x:v>00000000-0000-0000-0000-000000000000</x:v>
       </x:c>
-      <x:c r="FU2" s="5">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="FV2" t="str">
+      <x:c r="CE2" s="5">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CF2" t="str">
         <x:v>00000000-0000-0000-0000-000000000000</x:v>
       </x:c>
-      <x:c r="FW2" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="FX2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="FY2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="FZ2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="GA2" t="str">
+      <x:c r="CG2" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CH2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="CI2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="CJ2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="CK2" t="str">
         <x:v/>
       </x:c>
     </x:row>
